--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1_2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1_2.xlsx
@@ -446,7 +446,7 @@
         <v>1206.606</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -976,7 +976,7 @@
         <v>1487.447</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1619.504</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1870.694</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -5386,7 +5386,7 @@
         <v>612.197</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -5766,7 +5766,7 @@
         <v>723.842</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>811.4349999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1953.41</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>370.231</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>1077.276</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>947.154</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -11156,7 +11156,7 @@
         <v>853.607</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>834.4690000000001</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1628.865</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1_2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1_2.xlsx
@@ -446,7 +446,7 @@
         <v>1206.606</v>
       </c>
       <c r="C1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -976,7 +976,7 @@
         <v>1487.447</v>
       </c>
       <c r="C1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1619.504</v>
       </c>
       <c r="C1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1870.694</v>
       </c>
       <c r="C1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>811.4349999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1953.41</v>
       </c>
       <c r="C1" t="n">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>370.231</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>1077.276</v>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>947.154</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>834.4690000000001</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1628.865</v>
       </c>
       <c r="C1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
